--- a/tables/step2_ufors_qa_annotated.xlsx
+++ b/tables/step2_ufors_qa_annotated.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uq-my.sharepoint.com/personal/uqmhaug1_uq_edu_au/Documents/Desktop/Reproducibility in corpus pragmatics - IJCL/Data analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\UQ\BookProjects\SI_ReplicationInCorpusLinguistics\ourpaper\ijcl_ufor\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="8_{5211E63B-7F32-4CFE-8BA3-D410DB5FAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{143E1192-FB83-4071-AF6C-D0FF8855F119}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B61774-71D2-4855-AA13-B92862F6A54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data annotation" sheetId="1" r:id="rId1"/>
-    <sheet name="Pivot table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
-  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3271" uniqueCount="1363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3143" uniqueCount="1289">
   <si>
     <t>corpus</t>
   </si>
@@ -3881,235 +3877,13 @@
     <t>P</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>FP</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>or so</t>
-  </si>
-  <si>
-    <t>self-repair pursuing TC response</t>
-  </si>
-  <si>
-    <t>non-addressed recipient</t>
-  </si>
-  <si>
-    <t>addressed recipient</t>
-  </si>
-  <si>
-    <t>metapragmatic comment</t>
-  </si>
-  <si>
-    <t>A or B or</t>
-  </si>
-  <si>
-    <t>other-repair of Q</t>
-  </si>
-  <si>
-    <t>inaudible</t>
-  </si>
-  <si>
     <t>Q</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>request following question</t>
-  </si>
-  <si>
-    <t>pre-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N </t>
-  </si>
-  <si>
-    <t>A or B or; suggesting, advising</t>
-  </si>
-  <si>
-    <t>direct repeat</t>
-  </si>
-  <si>
-    <t>well-prefaced</t>
-  </si>
-  <si>
-    <t>joking</t>
-  </si>
-  <si>
-    <t>delayed response (continguity)</t>
-  </si>
-  <si>
-    <t>B &gt; A &gt; B</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>oh-prefaced</t>
-  </si>
-  <si>
-    <t>pursues confirmation</t>
-  </si>
-  <si>
-    <t>mm-prefaced</t>
-  </si>
-  <si>
-    <t>uh-prefaced</t>
-  </si>
-  <si>
-    <t>self-repair of response</t>
-  </si>
-  <si>
-    <t>hedged no</t>
-  </si>
-  <si>
-    <t>Rejection + account</t>
-  </si>
-  <si>
-    <t>YN</t>
-  </si>
-  <si>
-    <t>yes-response in overlap with UF-or</t>
-  </si>
-  <si>
-    <t>A or B</t>
-  </si>
-  <si>
-    <t>pursuing agreement; response in overlap with Q</t>
-  </si>
-  <si>
-    <t>A or B; reported speech</t>
-  </si>
-  <si>
-    <t>yeah + direct repeat</t>
-  </si>
-  <si>
-    <t>minimal response</t>
-  </si>
-  <si>
-    <t>um-prefaced</t>
-  </si>
-  <si>
-    <t>no + direct repeat</t>
-  </si>
-  <si>
-    <t>hedged yes</t>
-  </si>
-  <si>
-    <t>hedged yes followed by delayed disagreement (well-prefaced)</t>
-  </si>
-  <si>
-    <t>yes + direct repeat</t>
-  </si>
-  <si>
-    <t>Rejects terms of question</t>
-  </si>
-  <si>
-    <t>Checking terms of prior question</t>
-  </si>
-  <si>
-    <t>ah-prefaced</t>
-  </si>
-  <si>
-    <t>or not</t>
-  </si>
-  <si>
-    <t>or two</t>
-  </si>
-  <si>
-    <t>Appearance of UF-or created through line cut-off</t>
-  </si>
-  <si>
-    <t>Unclear - needs manual follow up</t>
-  </si>
-  <si>
-    <t>Alright + well-prefaced no</t>
-  </si>
-  <si>
-    <t>agreeability</t>
-  </si>
-  <si>
-    <t>or no</t>
-  </si>
-  <si>
-    <t>Unclear - requires follow-up</t>
-  </si>
-  <si>
-    <t>Polar question transformed into alternate question</t>
-  </si>
-  <si>
-    <t>Third alternative added (P &gt;&gt; A)</t>
-  </si>
-  <si>
-    <t>um + well-prefaced</t>
-  </si>
-  <si>
-    <t>delayed answer</t>
-  </si>
-  <si>
-    <t>look-prefaced</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>(blank)</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Count of action type</t>
-  </si>
-  <si>
-    <t>Column Labels</t>
-  </si>
-  <si>
-    <t>Continuer</t>
-  </si>
-  <si>
-    <t>&gt;&gt;A</t>
-  </si>
-  <si>
-    <t>&gt;&gt;Q</t>
-  </si>
-  <si>
-    <t>&gt;&gt;10</t>
-  </si>
-  <si>
-    <t>&gt;&gt;55</t>
-  </si>
-  <si>
-    <t>NOT ACCURATE FOLLOWING REVISION OF ANNOTATIONS - NEEDS RE-CALCULATING</t>
-  </si>
-  <si>
-    <t>Initially coded as uf-or Q, but subsequently coded as utterance-medial</t>
-  </si>
-  <si>
-    <t>Initially coded as uf-or Q. Subsequently coded as co-constructed utterance-medial - status as Q requires manual follow-up</t>
-  </si>
-  <si>
-    <t>annotator comment 1</t>
-  </si>
-  <si>
-    <t>annotator comment 2</t>
   </si>
   <si>
     <t>action format</t>
@@ -4119,7 +3893,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -4135,14 +3909,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -4182,7 +3948,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4197,18 +3963,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4228,3632 +3983,6 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Michael Haugh" refreshedDate="44980.466646064815" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="490" xr:uid="{2A2A1D5A-368F-45E2-9881-A85B4C129AB9}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="G1:H491" sheet="Data annotation"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="action type" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
-        <m/>
-        <s v="Q"/>
-        <s v="A"/>
-        <s v="S"/>
-        <s v="R"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="question type" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
-        <m/>
-        <s v="P"/>
-        <s v="FP"/>
-        <s v="A"/>
-        <s v="Q"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="response polarity" numFmtId="0">
-      <sharedItems containsBlank="1" count="9">
-        <m/>
-        <s v="Y"/>
-        <s v="N"/>
-        <s v="NA"/>
-        <s v="B"/>
-        <s v="N "/>
-        <s v="A"/>
-        <s v="AB"/>
-        <s v="YN"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="explicit-inferred" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="response type" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="490">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="E"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="I"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="I"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="I"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="I"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="I"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="I"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="E"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="I"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="I"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="I"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="I"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="E"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="I"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="I"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="I"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="7"/>
-    <s v="I"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
-    <s v="E"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="I"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="E"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="I"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="E"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="I"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
-    <s v="I"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="I"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="I"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="I"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="E"/>
-    <s v="TC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
-    <s v="I"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="I"/>
-    <s v="NTC"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6FEEA73-9FD0-4E02-985E-9D61DD4462A8}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:K18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="10">
-        <item x="6"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="14">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of action type" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8153,10 +4282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J491"/>
+  <dimension ref="A1:H491"/>
   <sheetViews>
-    <sheetView topLeftCell="D20" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8165,11 +4294,9 @@
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="122.140625" style="1" customWidth="1"/>
     <col min="7" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -8186,19 +4313,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1362</v>
+        <v>1288</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>1360</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -8218,7 +4339,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -8238,7 +4359,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -8258,13 +4379,13 @@
         <v>805</v>
       </c>
       <c r="G4" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H4" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -8283,11 +4404,8 @@
       <c r="F5" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -8307,7 +4425,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -8327,7 +4445,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -8347,7 +4465,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -8367,13 +4485,13 @@
         <v>810</v>
       </c>
       <c r="G9" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H9" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -8393,7 +4511,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -8413,7 +4531,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -8433,7 +4551,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -8453,7 +4571,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -8473,16 +4591,13 @@
         <v>815</v>
       </c>
       <c r="G14" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H14" t="s">
         <v>1284</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -8502,7 +4617,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -8522,7 +4637,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -8542,7 +4657,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -8562,7 +4677,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -8582,13 +4697,13 @@
         <v>820</v>
       </c>
       <c r="G19" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H19" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -8607,14 +4722,8 @@
       <c r="F20" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -8633,14 +4742,8 @@
       <c r="F21" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>1295</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -8660,7 +4763,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -8680,7 +4783,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -8700,13 +4803,13 @@
         <v>825</v>
       </c>
       <c r="G24" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H24" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -8725,11 +4828,8 @@
       <c r="F25" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -8749,7 +4849,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -8769,7 +4869,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -8789,7 +4889,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -8809,13 +4909,13 @@
         <v>830</v>
       </c>
       <c r="G29" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H29" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -8834,11 +4934,8 @@
       <c r="F30" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -8858,7 +4955,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -8878,7 +4975,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -8898,7 +4995,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -8918,16 +5015,13 @@
         <v>835</v>
       </c>
       <c r="G34" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="H34" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -8947,7 +5041,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -8967,7 +5061,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -8987,7 +5081,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -9007,7 +5101,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -9027,13 +5121,13 @@
         <v>840</v>
       </c>
       <c r="G39" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H39" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -9052,11 +5146,8 @@
       <c r="F40" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -9076,7 +5167,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -9096,7 +5187,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -9116,7 +5207,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -9136,13 +5227,13 @@
         <v>845</v>
       </c>
       <c r="G44" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H44" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -9162,7 +5253,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -9182,7 +5273,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -9202,7 +5293,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -9222,7 +5313,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -9242,13 +5333,13 @@
         <v>850</v>
       </c>
       <c r="G49" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H49" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -9268,7 +5359,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -9288,7 +5379,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -9308,7 +5399,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -9328,7 +5419,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -9348,16 +5439,13 @@
         <v>855</v>
       </c>
       <c r="G54" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="H54" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -9377,7 +5465,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -9397,7 +5485,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -9417,7 +5505,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -9437,7 +5525,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -9457,16 +5545,13 @@
         <v>860</v>
       </c>
       <c r="G59" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H59" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -9486,7 +5571,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -9506,7 +5591,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -9526,7 +5611,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -9546,7 +5631,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -9565,17 +5650,14 @@
       <c r="F64" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="G64" s="10" t="s">
-        <v>1290</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="G64" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -9594,11 +5676,8 @@
       <c r="F65" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -9618,7 +5697,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -9638,7 +5717,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -9658,7 +5737,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -9678,13 +5757,13 @@
         <v>870</v>
       </c>
       <c r="G69" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H69" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -9703,11 +5782,8 @@
       <c r="F70" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -9727,7 +5803,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -9747,7 +5823,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -9767,7 +5843,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -9787,13 +5863,13 @@
         <v>875</v>
       </c>
       <c r="G74" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H74" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -9812,11 +5888,8 @@
       <c r="F75" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -9836,7 +5909,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -9856,7 +5929,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -9876,7 +5949,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -9895,17 +5968,14 @@
       <c r="F79" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="G79" s="10" t="s">
-        <v>1300</v>
-      </c>
-      <c r="H79" s="10" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="G79" s="6" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -9925,7 +5995,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -9945,7 +6015,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -9965,7 +6035,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -9985,7 +6055,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -10005,13 +6075,13 @@
         <v>885</v>
       </c>
       <c r="G84" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H84" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -10030,11 +6100,8 @@
       <c r="F85" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="I85" s="1" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -10054,7 +6121,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -10074,7 +6141,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -10094,7 +6161,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -10114,16 +6181,13 @@
         <v>890</v>
       </c>
       <c r="G89" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H89" t="s">
         <v>1284</v>
       </c>
-      <c r="I89" s="1" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>93</v>
       </c>
@@ -10143,7 +6207,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -10163,7 +6227,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -10183,7 +6247,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -10203,7 +6267,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>97</v>
       </c>
@@ -10223,16 +6287,13 @@
         <v>895</v>
       </c>
       <c r="G94" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H94" t="s">
         <v>1284</v>
       </c>
-      <c r="I94" s="1" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -10252,7 +6313,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -10272,7 +6333,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>100</v>
       </c>
@@ -10292,7 +6353,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>101</v>
       </c>
@@ -10312,7 +6373,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>102</v>
       </c>
@@ -10332,13 +6393,13 @@
         <v>900</v>
       </c>
       <c r="G99" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H99" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -10357,11 +6418,8 @@
       <c r="F100" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="I100" s="1" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>104</v>
       </c>
@@ -10381,7 +6439,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>105</v>
       </c>
@@ -10401,7 +6459,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -10421,7 +6479,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>107</v>
       </c>
@@ -10441,13 +6499,13 @@
         <v>905</v>
       </c>
       <c r="G104" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H104" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -10466,11 +6524,8 @@
       <c r="F105" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="I105" s="1" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -10490,7 +6545,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>110</v>
       </c>
@@ -10510,7 +6565,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>111</v>
       </c>
@@ -10530,7 +6585,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -10550,16 +6605,13 @@
         <v>910</v>
       </c>
       <c r="G109" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H109" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>113</v>
       </c>
@@ -10578,11 +6630,8 @@
       <c r="F110" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="J110" s="1" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>114</v>
       </c>
@@ -10602,7 +6651,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -10622,7 +6671,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>116</v>
       </c>
@@ -10642,7 +6691,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>117</v>
       </c>
@@ -10662,13 +6711,13 @@
         <v>915</v>
       </c>
       <c r="G114" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H114" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>118</v>
       </c>
@@ -10688,7 +6737,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>119</v>
       </c>
@@ -10708,7 +6757,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>120</v>
       </c>
@@ -10728,7 +6777,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>121</v>
       </c>
@@ -10748,7 +6797,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>122</v>
       </c>
@@ -10768,13 +6817,13 @@
         <v>920</v>
       </c>
       <c r="G119" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H119" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>123</v>
       </c>
@@ -10793,11 +6842,8 @@
       <c r="F120" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="I120" s="1" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>124</v>
       </c>
@@ -10817,7 +6863,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>125</v>
       </c>
@@ -10837,7 +6883,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>126</v>
       </c>
@@ -10857,7 +6903,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>127</v>
       </c>
@@ -10877,13 +6923,13 @@
         <v>925</v>
       </c>
       <c r="G124" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H124" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>128</v>
       </c>
@@ -10902,11 +6948,8 @@
       <c r="F125" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="I125" s="1" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>129</v>
       </c>
@@ -10926,7 +6969,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>130</v>
       </c>
@@ -10946,7 +6989,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>131</v>
       </c>
@@ -10966,7 +7009,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>132</v>
       </c>
@@ -10986,13 +7029,13 @@
         <v>930</v>
       </c>
       <c r="G129" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H129" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>133</v>
       </c>
@@ -11011,14 +7054,8 @@
       <c r="F130" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="I130" s="1" t="s">
-        <v>1316</v>
-      </c>
-      <c r="J130" s="1" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>134</v>
       </c>
@@ -11038,7 +7075,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>135</v>
       </c>
@@ -11058,7 +7095,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>136</v>
       </c>
@@ -11078,7 +7115,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>137</v>
       </c>
@@ -11098,13 +7135,13 @@
         <v>935</v>
       </c>
       <c r="G134" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H134" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>138</v>
       </c>
@@ -11123,11 +7160,8 @@
       <c r="F135" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="I135" s="1" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>139</v>
       </c>
@@ -11147,7 +7181,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>140</v>
       </c>
@@ -11167,7 +7201,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>141</v>
       </c>
@@ -11187,7 +7221,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>142</v>
       </c>
@@ -11207,13 +7241,13 @@
         <v>940</v>
       </c>
       <c r="G139" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H139" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>143</v>
       </c>
@@ -11232,14 +7266,8 @@
       <c r="F140" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="I140" s="1" t="s">
-        <v>1309</v>
-      </c>
-      <c r="J140" s="1" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>144</v>
       </c>
@@ -11259,7 +7287,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>145</v>
       </c>
@@ -11279,7 +7307,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>146</v>
       </c>
@@ -11299,7 +7327,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>147</v>
       </c>
@@ -11319,13 +7347,13 @@
         <v>945</v>
       </c>
       <c r="G144" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H144" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>148</v>
       </c>
@@ -11344,11 +7372,8 @@
       <c r="F145" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="I145" s="1" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>149</v>
       </c>
@@ -11368,7 +7393,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>150</v>
       </c>
@@ -11388,7 +7413,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>151</v>
       </c>
@@ -11408,7 +7433,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>152</v>
       </c>
@@ -11428,13 +7453,13 @@
         <v>950</v>
       </c>
       <c r="G149" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H149" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>153</v>
       </c>
@@ -11453,11 +7478,8 @@
       <c r="F150" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="J150" s="1" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>154</v>
       </c>
@@ -11477,7 +7499,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>155</v>
       </c>
@@ -11497,7 +7519,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>156</v>
       </c>
@@ -11517,7 +7539,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>157</v>
       </c>
@@ -11537,13 +7559,13 @@
         <v>955</v>
       </c>
       <c r="G154" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H154" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>158</v>
       </c>
@@ -11562,11 +7584,8 @@
       <c r="F155" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="J155" s="1" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>159</v>
       </c>
@@ -11586,7 +7605,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>160</v>
       </c>
@@ -11606,7 +7625,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>161</v>
       </c>
@@ -11626,7 +7645,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>162</v>
       </c>
@@ -11646,13 +7665,13 @@
         <v>960</v>
       </c>
       <c r="G159" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H159" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>163</v>
       </c>
@@ -11671,14 +7690,8 @@
       <c r="F160" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="I160" s="1" t="s">
-        <v>1313</v>
-      </c>
-      <c r="J160" s="1" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>164</v>
       </c>
@@ -11698,7 +7711,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>165</v>
       </c>
@@ -11718,7 +7731,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>166</v>
       </c>
@@ -11738,7 +7751,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>167</v>
       </c>
@@ -11758,13 +7771,13 @@
         <v>965</v>
       </c>
       <c r="G164" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H164" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>168</v>
       </c>
@@ -11783,11 +7796,8 @@
       <c r="F165" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="J165" s="1" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>169</v>
       </c>
@@ -11807,7 +7817,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>170</v>
       </c>
@@ -11827,7 +7837,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>171</v>
       </c>
@@ -11847,7 +7857,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>172</v>
       </c>
@@ -11867,16 +7877,13 @@
         <v>970</v>
       </c>
       <c r="G169" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="H169" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I169" s="1" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>173</v>
       </c>
@@ -11896,7 +7903,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>174</v>
       </c>
@@ -11916,7 +7923,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>175</v>
       </c>
@@ -11936,7 +7943,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>176</v>
       </c>
@@ -11956,7 +7963,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>177</v>
       </c>
@@ -11976,13 +7983,13 @@
         <v>975</v>
       </c>
       <c r="G174" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H174" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>178</v>
       </c>
@@ -12002,7 +8009,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>179</v>
       </c>
@@ -12022,7 +8029,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>180</v>
       </c>
@@ -12042,7 +8049,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>181</v>
       </c>
@@ -12062,7 +8069,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>182</v>
       </c>
@@ -12082,13 +8089,13 @@
         <v>980</v>
       </c>
       <c r="G179" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H179" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>183</v>
       </c>
@@ -12108,7 +8115,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>184</v>
       </c>
@@ -12128,7 +8135,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>185</v>
       </c>
@@ -12148,7 +8155,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>186</v>
       </c>
@@ -12168,7 +8175,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>187</v>
       </c>
@@ -12188,13 +8195,13 @@
         <v>985</v>
       </c>
       <c r="G184" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H184" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>188</v>
       </c>
@@ -12213,14 +8220,8 @@
       <c r="F185" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="I185" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="J185" s="1" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>189</v>
       </c>
@@ -12240,7 +8241,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>190</v>
       </c>
@@ -12260,7 +8261,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>191</v>
       </c>
@@ -12280,7 +8281,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>192</v>
       </c>
@@ -12300,13 +8301,13 @@
         <v>990</v>
       </c>
       <c r="G189" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H189" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>193</v>
       </c>
@@ -12326,7 +8327,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>194</v>
       </c>
@@ -12346,7 +8347,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>195</v>
       </c>
@@ -12366,7 +8367,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>196</v>
       </c>
@@ -12386,7 +8387,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>197</v>
       </c>
@@ -12406,13 +8407,13 @@
         <v>995</v>
       </c>
       <c r="G194" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H194" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>198</v>
       </c>
@@ -12431,11 +8432,8 @@
       <c r="F195" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="I195" s="1" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>199</v>
       </c>
@@ -12455,7 +8453,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>200</v>
       </c>
@@ -12475,7 +8473,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>201</v>
       </c>
@@ -12495,7 +8493,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>202</v>
       </c>
@@ -12515,13 +8513,13 @@
         <v>997</v>
       </c>
       <c r="G199" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H199" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>203</v>
       </c>
@@ -12540,11 +8538,8 @@
       <c r="F200" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="I200" s="1" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>204</v>
       </c>
@@ -12564,7 +8559,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>205</v>
       </c>
@@ -12584,7 +8579,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>206</v>
       </c>
@@ -12604,7 +8599,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>207</v>
       </c>
@@ -12624,16 +8619,13 @@
         <v>1002</v>
       </c>
       <c r="G204" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H204" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I204" s="1" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>208</v>
       </c>
@@ -12652,11 +8644,8 @@
       <c r="F205" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="I205" s="1" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>209</v>
       </c>
@@ -12676,7 +8665,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>210</v>
       </c>
@@ -12696,7 +8685,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>211</v>
       </c>
@@ -12716,7 +8705,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>212</v>
       </c>
@@ -12736,16 +8725,13 @@
         <v>1007</v>
       </c>
       <c r="G209" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H209" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I209" s="1" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>213</v>
       </c>
@@ -12764,11 +8750,8 @@
       <c r="F210" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="I210" s="1" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>214</v>
       </c>
@@ -12788,7 +8771,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>215</v>
       </c>
@@ -12808,7 +8791,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>216</v>
       </c>
@@ -12828,7 +8811,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>217</v>
       </c>
@@ -12848,16 +8831,13 @@
         <v>1012</v>
       </c>
       <c r="G214" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="H214" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I214" s="1" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>218</v>
       </c>
@@ -12877,7 +8857,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>219</v>
       </c>
@@ -12897,7 +8877,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>220</v>
       </c>
@@ -12917,7 +8897,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>221</v>
       </c>
@@ -12937,7 +8917,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>222</v>
       </c>
@@ -12957,13 +8937,13 @@
         <v>1017</v>
       </c>
       <c r="G219" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H219" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>223</v>
       </c>
@@ -12982,11 +8962,8 @@
       <c r="F220" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="I220" s="1" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>224</v>
       </c>
@@ -13006,7 +8983,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>225</v>
       </c>
@@ -13026,7 +9003,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>226</v>
       </c>
@@ -13046,7 +9023,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>227</v>
       </c>
@@ -13066,13 +9043,13 @@
         <v>1022</v>
       </c>
       <c r="G224" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H224" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="225" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>228</v>
       </c>
@@ -13091,11 +9068,8 @@
       <c r="F225" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="I225" s="1" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>229</v>
       </c>
@@ -13115,7 +9089,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>230</v>
       </c>
@@ -13135,7 +9109,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>231</v>
       </c>
@@ -13155,7 +9129,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>232</v>
       </c>
@@ -13175,13 +9149,13 @@
         <v>1027</v>
       </c>
       <c r="G229" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H229" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="230" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>233</v>
       </c>
@@ -13200,11 +9174,8 @@
       <c r="F230" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="I230" s="1" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>234</v>
       </c>
@@ -13224,7 +9195,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>235</v>
       </c>
@@ -13244,7 +9215,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>236</v>
       </c>
@@ -13264,7 +9235,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>237</v>
       </c>
@@ -13284,13 +9255,13 @@
         <v>1032</v>
       </c>
       <c r="G234" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H234" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>238</v>
       </c>
@@ -13309,11 +9280,8 @@
       <c r="F235" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="I235" s="1" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>239</v>
       </c>
@@ -13333,7 +9301,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>240</v>
       </c>
@@ -13353,7 +9321,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>241</v>
       </c>
@@ -13373,7 +9341,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>242</v>
       </c>
@@ -13393,13 +9361,13 @@
         <v>1037</v>
       </c>
       <c r="G239" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H239" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>243</v>
       </c>
@@ -13418,14 +9386,8 @@
       <c r="F240" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="I240" s="1" t="s">
-        <v>1306</v>
-      </c>
-      <c r="J240" s="1" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>244</v>
       </c>
@@ -13445,7 +9407,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>245</v>
       </c>
@@ -13465,7 +9427,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>246</v>
       </c>
@@ -13485,7 +9447,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>247</v>
       </c>
@@ -13505,13 +9467,13 @@
         <v>1042</v>
       </c>
       <c r="G244" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H244" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>248</v>
       </c>
@@ -13530,11 +9492,8 @@
       <c r="F245" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="I245" s="1" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>249</v>
       </c>
@@ -13554,7 +9513,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>250</v>
       </c>
@@ -13574,7 +9533,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>251</v>
       </c>
@@ -13594,7 +9553,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>252</v>
       </c>
@@ -13614,16 +9573,13 @@
         <v>1047</v>
       </c>
       <c r="G249" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H249" t="s">
         <v>1284</v>
       </c>
-      <c r="I249" s="1" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>253</v>
       </c>
@@ -13642,11 +9598,8 @@
       <c r="F250" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="I250" s="1" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>254</v>
       </c>
@@ -13666,7 +9619,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>255</v>
       </c>
@@ -13686,7 +9639,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>256</v>
       </c>
@@ -13706,7 +9659,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>257</v>
       </c>
@@ -13726,16 +9679,13 @@
         <v>1052</v>
       </c>
       <c r="G254" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="H254" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I254" s="1" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>258</v>
       </c>
@@ -13755,7 +9705,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>259</v>
       </c>
@@ -13775,7 +9725,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>260</v>
       </c>
@@ -13795,7 +9745,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>261</v>
       </c>
@@ -13815,7 +9765,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>262</v>
       </c>
@@ -13835,13 +9785,13 @@
         <v>1057</v>
       </c>
       <c r="G259" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H259" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>263</v>
       </c>
@@ -13861,7 +9811,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>264</v>
       </c>
@@ -13881,7 +9831,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>265</v>
       </c>
@@ -13901,7 +9851,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>266</v>
       </c>
@@ -13921,7 +9871,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>267</v>
       </c>
@@ -13941,13 +9891,13 @@
         <v>1062</v>
       </c>
       <c r="G264" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H264" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>268</v>
       </c>
@@ -13967,7 +9917,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>269</v>
       </c>
@@ -13987,7 +9937,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>270</v>
       </c>
@@ -14007,7 +9957,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>271</v>
       </c>
@@ -14027,7 +9977,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>272</v>
       </c>
@@ -14047,16 +9997,13 @@
         <v>1067</v>
       </c>
       <c r="G269" t="s">
-        <v>1300</v>
-      </c>
-      <c r="H269" s="10" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I269" s="9" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1287</v>
+      </c>
+      <c r="H269" s="6" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>273</v>
       </c>
@@ -14075,11 +10022,8 @@
       <c r="F270" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="I270" s="1" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>274</v>
       </c>
@@ -14099,7 +10043,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>275</v>
       </c>
@@ -14119,7 +10063,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>276</v>
       </c>
@@ -14139,7 +10083,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>277</v>
       </c>
@@ -14159,16 +10103,13 @@
         <v>1071</v>
       </c>
       <c r="G274" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="H274" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I274" s="1" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>278</v>
       </c>
@@ -14188,7 +10129,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>279</v>
       </c>
@@ -14208,7 +10149,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>280</v>
       </c>
@@ -14228,7 +10169,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>281</v>
       </c>
@@ -14248,7 +10189,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>282</v>
       </c>
@@ -14268,13 +10209,13 @@
         <v>1076</v>
       </c>
       <c r="G279" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H279" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>283</v>
       </c>
@@ -14293,11 +10234,8 @@
       <c r="F280" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="I280" s="1" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>284</v>
       </c>
@@ -14317,7 +10255,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>285</v>
       </c>
@@ -14337,7 +10275,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>286</v>
       </c>
@@ -14357,7 +10295,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>287</v>
       </c>
@@ -14377,16 +10315,13 @@
         <v>1081</v>
       </c>
       <c r="G284" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="H284" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I284" s="1" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>288</v>
       </c>
@@ -14406,7 +10341,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>289</v>
       </c>
@@ -14426,7 +10361,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>290</v>
       </c>
@@ -14446,7 +10381,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>291</v>
       </c>
@@ -14466,7 +10401,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>292</v>
       </c>
@@ -14486,13 +10421,13 @@
         <v>1086</v>
       </c>
       <c r="G289" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H289" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>293</v>
       </c>
@@ -14512,7 +10447,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>294</v>
       </c>
@@ -14532,7 +10467,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>295</v>
       </c>
@@ -14552,7 +10487,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>296</v>
       </c>
@@ -14572,7 +10507,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>297</v>
       </c>
@@ -14592,13 +10527,13 @@
         <v>1091</v>
       </c>
       <c r="G294" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H294" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>298</v>
       </c>
@@ -14617,11 +10552,8 @@
       <c r="F295" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="I295" s="1" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>299</v>
       </c>
@@ -14641,7 +10573,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>300</v>
       </c>
@@ -14661,7 +10593,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>301</v>
       </c>
@@ -14681,7 +10613,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>302</v>
       </c>
@@ -14701,16 +10633,13 @@
         <v>1096</v>
       </c>
       <c r="G299" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="H299" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I299" s="1" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>303</v>
       </c>
@@ -14730,7 +10659,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>304</v>
       </c>
@@ -14750,7 +10679,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>305</v>
       </c>
@@ -14770,7 +10699,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>306</v>
       </c>
@@ -14790,7 +10719,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>307</v>
       </c>
@@ -14810,13 +10739,13 @@
         <v>1101</v>
       </c>
       <c r="G304" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H304" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>308</v>
       </c>
@@ -14835,11 +10764,8 @@
       <c r="F305" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="I305" s="1" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>309</v>
       </c>
@@ -14859,7 +10785,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>310</v>
       </c>
@@ -14879,7 +10805,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>311</v>
       </c>
@@ -14899,7 +10825,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>312</v>
       </c>
@@ -14919,16 +10845,13 @@
         <v>1106</v>
       </c>
       <c r="G309" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="H309" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I309" s="1" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>313</v>
       </c>
@@ -14948,7 +10871,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>314</v>
       </c>
@@ -14968,7 +10891,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>315</v>
       </c>
@@ -14988,7 +10911,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>316</v>
       </c>
@@ -15008,7 +10931,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>317</v>
       </c>
@@ -15028,13 +10951,13 @@
         <v>1111</v>
       </c>
       <c r="G314" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H314" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>318</v>
       </c>
@@ -15053,11 +10976,8 @@
       <c r="F315" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="J315" s="1" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>319</v>
       </c>
@@ -15077,7 +10997,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>320</v>
       </c>
@@ -15097,7 +11017,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>321</v>
       </c>
@@ -15117,7 +11037,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>322</v>
       </c>
@@ -15137,13 +11057,13 @@
         <v>1116</v>
       </c>
       <c r="G319" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H319" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>323</v>
       </c>
@@ -15162,11 +11082,8 @@
       <c r="F320" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="J320" s="1" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>324</v>
       </c>
@@ -15186,7 +11103,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>325</v>
       </c>
@@ -15206,7 +11123,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>326</v>
       </c>
@@ -15226,7 +11143,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>327</v>
       </c>
@@ -15246,16 +11163,13 @@
         <v>1121</v>
       </c>
       <c r="G324" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="H324" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I324" s="1" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>328</v>
       </c>
@@ -15275,7 +11189,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>329</v>
       </c>
@@ -15295,7 +11209,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>330</v>
       </c>
@@ -15315,7 +11229,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>331</v>
       </c>
@@ -15335,7 +11249,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>332</v>
       </c>
@@ -15355,13 +11269,13 @@
         <v>1126</v>
       </c>
       <c r="G329" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H329" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>333</v>
       </c>
@@ -15381,7 +11295,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>334</v>
       </c>
@@ -15401,7 +11315,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>335</v>
       </c>
@@ -15421,7 +11335,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>336</v>
       </c>
@@ -15441,7 +11355,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>337</v>
       </c>
@@ -15461,13 +11375,13 @@
         <v>1131</v>
       </c>
       <c r="G334" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H334" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>338</v>
       </c>
@@ -15487,7 +11401,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>339</v>
       </c>
@@ -15507,7 +11421,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>340</v>
       </c>
@@ -15527,7 +11441,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>341</v>
       </c>
@@ -15547,7 +11461,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>342</v>
       </c>
@@ -15567,13 +11481,13 @@
         <v>1136</v>
       </c>
       <c r="G339" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H339" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>343</v>
       </c>
@@ -15592,11 +11506,8 @@
       <c r="F340" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="I340" s="1" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>344</v>
       </c>
@@ -15616,7 +11527,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>345</v>
       </c>
@@ -15636,7 +11547,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>346</v>
       </c>
@@ -15656,7 +11567,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>347</v>
       </c>
@@ -15676,13 +11587,13 @@
         <v>1140</v>
       </c>
       <c r="G344" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H344" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>348</v>
       </c>
@@ -15702,7 +11613,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>349</v>
       </c>
@@ -15722,7 +11633,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>350</v>
       </c>
@@ -15742,7 +11653,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>351</v>
       </c>
@@ -15762,7 +11673,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>352</v>
       </c>
@@ -15782,13 +11693,13 @@
         <v>1145</v>
       </c>
       <c r="G349" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H349" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>353</v>
       </c>
@@ -15808,7 +11719,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>354</v>
       </c>
@@ -15828,7 +11739,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>355</v>
       </c>
@@ -15848,7 +11759,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>356</v>
       </c>
@@ -15868,7 +11779,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>357</v>
       </c>
@@ -15888,13 +11799,13 @@
         <v>1150</v>
       </c>
       <c r="G354" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H354" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>358</v>
       </c>
@@ -15914,7 +11825,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>359</v>
       </c>
@@ -15934,7 +11845,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>360</v>
       </c>
@@ -15954,7 +11865,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>361</v>
       </c>
@@ -15974,7 +11885,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>362</v>
       </c>
@@ -15994,13 +11905,13 @@
         <v>1155</v>
       </c>
       <c r="G359" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H359" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>363</v>
       </c>
@@ -16019,11 +11930,8 @@
       <c r="F360" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="I360" s="1" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="361" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>364</v>
       </c>
@@ -16043,7 +11951,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>365</v>
       </c>
@@ -16063,7 +11971,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>366</v>
       </c>
@@ -16083,7 +11991,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>367</v>
       </c>
@@ -16103,16 +12011,13 @@
         <v>1160</v>
       </c>
       <c r="G364" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H364" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I364" s="1" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>368</v>
       </c>
@@ -16131,11 +12036,8 @@
       <c r="F365" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="I365" s="1" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>369</v>
       </c>
@@ -16155,7 +12057,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>370</v>
       </c>
@@ -16175,7 +12077,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>371</v>
       </c>
@@ -16195,7 +12097,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>372</v>
       </c>
@@ -16215,13 +12117,13 @@
         <v>1165</v>
       </c>
       <c r="G369" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H369" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="370" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>373</v>
       </c>
@@ -16240,14 +12142,8 @@
       <c r="F370" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="I370" s="1" t="s">
-        <v>1345</v>
-      </c>
-      <c r="J370" s="1" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>374</v>
       </c>
@@ -16267,7 +12163,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>375</v>
       </c>
@@ -16287,7 +12183,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>376</v>
       </c>
@@ -16307,7 +12203,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>377</v>
       </c>
@@ -16327,13 +12223,13 @@
         <v>1170</v>
       </c>
       <c r="G374" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H374" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>378</v>
       </c>
@@ -16352,11 +12248,8 @@
       <c r="F375" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="J375" s="1" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>379</v>
       </c>
@@ -16376,7 +12269,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="377" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>380</v>
       </c>
@@ -16396,7 +12289,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>381</v>
       </c>
@@ -16416,7 +12309,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>382</v>
       </c>
@@ -16436,16 +12329,13 @@
         <v>1175</v>
       </c>
       <c r="G379" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H379" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I379" s="1" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>383</v>
       </c>
@@ -16465,7 +12355,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>384</v>
       </c>
@@ -16485,7 +12375,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>385</v>
       </c>
@@ -16505,7 +12395,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>386</v>
       </c>
@@ -16525,7 +12415,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>387</v>
       </c>
@@ -16545,13 +12435,13 @@
         <v>1180</v>
       </c>
       <c r="G384" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H384" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>388</v>
       </c>
@@ -16570,11 +12460,8 @@
       <c r="F385" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="I385" s="1" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>389</v>
       </c>
@@ -16594,7 +12481,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>390</v>
       </c>
@@ -16614,7 +12501,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>391</v>
       </c>
@@ -16634,7 +12521,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>392</v>
       </c>
@@ -16654,16 +12541,13 @@
         <v>1185</v>
       </c>
       <c r="G389" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H389" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I389" s="1" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>393</v>
       </c>
@@ -16683,7 +12567,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>394</v>
       </c>
@@ -16703,7 +12587,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>395</v>
       </c>
@@ -16723,7 +12607,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>396</v>
       </c>
@@ -16743,7 +12627,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>397</v>
       </c>
@@ -16763,13 +12647,13 @@
         <v>1189</v>
       </c>
       <c r="G394" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H394" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>398</v>
       </c>
@@ -16789,7 +12673,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>399</v>
       </c>
@@ -16809,7 +12693,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>400</v>
       </c>
@@ -16829,7 +12713,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>401</v>
       </c>
@@ -16849,7 +12733,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>402</v>
       </c>
@@ -16869,16 +12753,13 @@
         <v>1193</v>
       </c>
       <c r="G399" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="H399" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I399" s="1" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>403</v>
       </c>
@@ -16898,7 +12779,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>404</v>
       </c>
@@ -16918,7 +12799,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>405</v>
       </c>
@@ -16938,7 +12819,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>406</v>
       </c>
@@ -16958,7 +12839,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>407</v>
       </c>
@@ -16978,16 +12859,13 @@
         <v>1197</v>
       </c>
       <c r="G404" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="H404" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I404" s="1" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>408</v>
       </c>
@@ -17007,7 +12885,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>409</v>
       </c>
@@ -17027,7 +12905,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>410</v>
       </c>
@@ -17047,7 +12925,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>411</v>
       </c>
@@ -17067,7 +12945,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="409" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>412</v>
       </c>
@@ -17087,16 +12965,13 @@
         <v>1202</v>
       </c>
       <c r="G409" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H409" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I409" s="9" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>413</v>
       </c>
@@ -17116,7 +12991,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>414</v>
       </c>
@@ -17136,7 +13011,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>415</v>
       </c>
@@ -17156,7 +13031,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>416</v>
       </c>
@@ -17176,7 +13051,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>417</v>
       </c>
@@ -17196,13 +13071,13 @@
         <v>1207</v>
       </c>
       <c r="G414" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H414" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>418</v>
       </c>
@@ -17222,7 +13097,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>419</v>
       </c>
@@ -17242,7 +13117,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>420</v>
       </c>
@@ -17262,7 +13137,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>421</v>
       </c>
@@ -17282,7 +13157,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>422</v>
       </c>
@@ -17302,16 +13177,13 @@
         <v>1212</v>
       </c>
       <c r="G419" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="H419" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I419" s="1" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>423</v>
       </c>
@@ -17331,7 +13203,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>424</v>
       </c>
@@ -17351,7 +13223,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>425</v>
       </c>
@@ -17371,7 +13243,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>426</v>
       </c>
@@ -17391,7 +13263,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>427</v>
       </c>
@@ -17411,13 +13283,13 @@
         <v>1217</v>
       </c>
       <c r="G424" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="H424" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>428</v>
       </c>
@@ -17437,7 +13309,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>429</v>
       </c>
@@ -17457,7 +13329,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>430</v>
       </c>
@@ -17477,7 +13349,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>431</v>
       </c>
@@ -17497,7 +13369,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>432</v>
       </c>
@@ -17517,13 +13389,13 @@
         <v>1222</v>
       </c>
       <c r="G429" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="H429" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>433</v>
       </c>
@@ -17543,7 +13415,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>434</v>
       </c>
@@ -17563,7 +13435,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>435</v>
       </c>
@@ -17583,7 +13455,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>436</v>
       </c>
@@ -17603,7 +13475,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>437</v>
       </c>
@@ -17623,13 +13495,13 @@
         <v>1227</v>
       </c>
       <c r="G434" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="H434" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>438</v>
       </c>
@@ -17649,7 +13521,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>439</v>
       </c>
@@ -17669,7 +13541,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>440</v>
       </c>
@@ -17689,7 +13561,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>441</v>
       </c>
@@ -17709,7 +13581,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>442</v>
       </c>
@@ -17729,13 +13601,13 @@
         <v>1232</v>
       </c>
       <c r="G439" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="H439" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>443</v>
       </c>
@@ -17755,7 +13627,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>444</v>
       </c>
@@ -17775,7 +13647,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>445</v>
       </c>
@@ -17795,7 +13667,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>446</v>
       </c>
@@ -17815,7 +13687,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>447</v>
       </c>
@@ -17835,16 +13707,13 @@
         <v>1237</v>
       </c>
       <c r="G444" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="H444" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I444" s="1" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>448</v>
       </c>
@@ -17864,7 +13733,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>449</v>
       </c>
@@ -17884,7 +13753,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>450</v>
       </c>
@@ -17904,7 +13773,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>451</v>
       </c>
@@ -17924,7 +13793,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>452</v>
       </c>
@@ -17944,13 +13813,13 @@
         <v>1242</v>
       </c>
       <c r="G449" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="H449" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>453</v>
       </c>
@@ -17970,7 +13839,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>454</v>
       </c>
@@ -17990,7 +13859,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>455</v>
       </c>
@@ -18010,7 +13879,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>456</v>
       </c>
@@ -18030,7 +13899,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>457</v>
       </c>
@@ -18050,16 +13919,13 @@
         <v>1247</v>
       </c>
       <c r="G454" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="H454" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I454" s="1" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>458</v>
       </c>
@@ -18079,7 +13945,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>459</v>
       </c>
@@ -18099,7 +13965,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>460</v>
       </c>
@@ -18119,7 +13985,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>461</v>
       </c>
@@ -18139,7 +14005,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>462</v>
       </c>
@@ -18159,16 +14025,13 @@
         <v>1252</v>
       </c>
       <c r="G459" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H459" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I459" s="1" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>463</v>
       </c>
@@ -18188,7 +14051,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>464</v>
       </c>
@@ -18208,7 +14071,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>465</v>
       </c>
@@ -18228,7 +14091,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>466</v>
       </c>
@@ -18248,7 +14111,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>467</v>
       </c>
@@ -18268,13 +14131,13 @@
         <v>1257</v>
       </c>
       <c r="G464" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="H464" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>468</v>
       </c>
@@ -18294,7 +14157,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>469</v>
       </c>
@@ -18314,7 +14177,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>470</v>
       </c>
@@ -18334,7 +14197,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>471</v>
       </c>
@@ -18354,7 +14217,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>472</v>
       </c>
@@ -18374,13 +14237,13 @@
         <v>1262</v>
       </c>
       <c r="G469" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="H469" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>473</v>
       </c>
@@ -18400,7 +14263,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>474</v>
       </c>
@@ -18420,7 +14283,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>475</v>
       </c>
@@ -18440,7 +14303,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>476</v>
       </c>
@@ -18460,7 +14323,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>477</v>
       </c>
@@ -18480,13 +14343,13 @@
         <v>1265</v>
       </c>
       <c r="G474" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="H474" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>478</v>
       </c>
@@ -18506,7 +14369,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>479</v>
       </c>
@@ -18526,7 +14389,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>480</v>
       </c>
@@ -18546,7 +14409,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>481</v>
       </c>
@@ -18566,7 +14429,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>482</v>
       </c>
@@ -18586,13 +14449,13 @@
         <v>1270</v>
       </c>
       <c r="G479" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H479" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="480" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>483</v>
       </c>
@@ -18611,14 +14474,8 @@
       <c r="F480" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="I480" s="1" t="s">
-        <v>1341</v>
-      </c>
-      <c r="J480" s="1" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="481" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>484</v>
       </c>
@@ -18637,11 +14494,8 @@
       <c r="F481" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="I481" s="1" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>485</v>
       </c>
@@ -18661,7 +14515,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>486</v>
       </c>
@@ -18681,7 +14535,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>487</v>
       </c>
@@ -18701,13 +14555,13 @@
         <v>1275</v>
       </c>
       <c r="G484" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="H484" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>488</v>
       </c>
@@ -18727,7 +14581,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>489</v>
       </c>
@@ -18747,7 +14601,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>490</v>
       </c>
@@ -18767,7 +14621,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>491</v>
       </c>
@@ -18787,7 +14641,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>492</v>
       </c>
@@ -18807,13 +14661,13 @@
         <v>1280</v>
       </c>
       <c r="G489" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="H489" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="490" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>493</v>
       </c>
@@ -18832,14 +14686,8 @@
       <c r="F490" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="I490" s="1" t="s">
-        <v>1341</v>
-      </c>
-      <c r="J490" s="1" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="491" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>494</v>
       </c>
@@ -18857,259 +14705,10 @@
       </c>
       <c r="F491" s="1" t="s">
         <v>1282</v>
-      </c>
-      <c r="I491" s="1" t="s">
-        <v>1343</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09EBF4B5-3977-42CA-846A-B6F6A4BB6FAF}">
-  <dimension ref="A1:M20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1311</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1304</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1288</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1319</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1348</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>1290</v>
-      </c>
-      <c r="J5">
-        <v>24</v>
-      </c>
-      <c r="K5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>1289</v>
-      </c>
-      <c r="J6">
-        <v>24</v>
-      </c>
-      <c r="K6">
-        <v>24</v>
-      </c>
-      <c r="L6">
-        <v>25</v>
-      </c>
-      <c r="M6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>1300</v>
-      </c>
-      <c r="J7">
-        <v>72</v>
-      </c>
-      <c r="K7">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>1290</v>
-      </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
-      <c r="K8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>1289</v>
-      </c>
-      <c r="J9">
-        <v>7</v>
-      </c>
-      <c r="K9">
-        <v>7</v>
-      </c>
-      <c r="L9" t="s">
-        <v>1355</v>
-      </c>
-      <c r="M9" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>1284</v>
-      </c>
-      <c r="J10">
-        <v>57</v>
-      </c>
-      <c r="K10">
-        <v>57</v>
-      </c>
-      <c r="L10" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M10" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>1300</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>1301</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>1284</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>1285</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>1289</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>1349</v>
-      </c>
-      <c r="J18">
-        <v>98</v>
-      </c>
-      <c r="K18">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
 </file>